--- a/thinned_combined_out/rtv_ec.xlsx
+++ b/thinned_combined_out/rtv_ec.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26722"/>
-  <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
+  <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="14200" yWindow="400" windowWidth="20020" windowHeight="18440" tabRatio="500"/>
+    <workbookView xWindow="880" yWindow="880" windowWidth="24720" windowHeight="17500" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="rtv_ec.csv" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="91">
   <si>
     <t>Term</t>
   </si>
@@ -54,7 +54,7 @@
     <t>nkDenuclearization</t>
   </si>
   <si>
-    <t>littleRocketMan</t>
+    <t>kimJongun</t>
   </si>
   <si>
     <t>nkNuclearProgram</t>
@@ -142,9 +142,6 @@
   </si>
   <si>
     <t>alliedExpulsions</t>
-  </si>
-  <si>
-    <t>daca</t>
   </si>
   <si>
     <t>nkDeception</t>
@@ -685,15 +682,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R87"/>
+  <dimension ref="A1:R86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="R50" sqref="R50"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="34.83203125" customWidth="1"/>
+    <col min="1" max="1" width="29.33203125" customWidth="1"/>
     <col min="2" max="5" width="4.5" style="1" customWidth="1"/>
     <col min="6" max="9" width="4.5" style="2" customWidth="1"/>
     <col min="10" max="13" width="4.5" style="3" customWidth="1"/>
@@ -778,7 +778,7 @@
         <v>75.8</v>
       </c>
       <c r="O2">
-        <v>8.1522908152290796E-2</v>
+        <v>8.1963667820069197E-2</v>
       </c>
       <c r="P2">
         <v>5</v>
@@ -787,7 +787,7 @@
         <v>0.87546873735389996</v>
       </c>
       <c r="R2">
-        <v>7.1370757465504003E-2</v>
+        <v>7.1756628775330497E-2</v>
       </c>
     </row>
     <row r="3" spans="1:18">
@@ -813,7 +813,7 @@
         <v>72</v>
       </c>
       <c r="O3">
-        <v>7.7436007743600793E-2</v>
+        <v>7.7854671280276802E-2</v>
       </c>
       <c r="P3">
         <v>5</v>
@@ -822,7 +822,7 @@
         <v>0.87546873735389996</v>
       </c>
       <c r="R3">
-        <v>6.7792803925017006E-2</v>
+        <v>6.8159330762846901E-2</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -845,7 +845,7 @@
         <v>39</v>
       </c>
       <c r="O4">
-        <v>4.1944504194450401E-2</v>
+        <v>4.2171280276816603E-2</v>
       </c>
       <c r="P4">
         <v>4</v>
@@ -854,7 +854,7 @@
         <v>1.09861228866811</v>
       </c>
       <c r="R4">
-        <v>4.6080747750114302E-2</v>
+        <v>4.6329886740977801E-2</v>
       </c>
     </row>
     <row r="5" spans="1:18">
@@ -877,7 +877,7 @@
         <v>37.299999999999997</v>
       </c>
       <c r="O5">
-        <v>4.0116154011615397E-2</v>
+        <v>4.0333044982698997E-2</v>
       </c>
       <c r="P5">
         <v>4</v>
@@ -886,7 +886,7 @@
         <v>1.09861228866811</v>
       </c>
       <c r="R5">
-        <v>4.4072099771263203E-2</v>
+        <v>4.43103788573967E-2</v>
       </c>
     </row>
     <row r="6" spans="1:18">
@@ -909,7 +909,7 @@
         <v>37.299999999999997</v>
       </c>
       <c r="O6">
-        <v>4.0116154011615397E-2</v>
+        <v>4.0333044982698997E-2</v>
       </c>
       <c r="P6">
         <v>4</v>
@@ -918,7 +918,7 @@
         <v>1.09861228866811</v>
       </c>
       <c r="R6">
-        <v>4.4072099771263203E-2</v>
+        <v>4.43103788573967E-2</v>
       </c>
     </row>
     <row r="7" spans="1:18">
@@ -938,7 +938,7 @@
         <v>28</v>
       </c>
       <c r="O7">
-        <v>3.0114003011400301E-2</v>
+        <v>3.0276816608996501E-2</v>
       </c>
       <c r="P7">
         <v>3</v>
@@ -947,7 +947,7 @@
         <v>1.3862943611198899</v>
       </c>
       <c r="R7">
-        <v>4.17468725654516E-2</v>
+        <v>4.1972580137713003E-2</v>
       </c>
     </row>
     <row r="8" spans="1:18">
@@ -970,7 +970,7 @@
         <v>34.799999999999997</v>
       </c>
       <c r="O8">
-        <v>3.7427403742740402E-2</v>
+        <v>3.7629757785467101E-2</v>
       </c>
       <c r="P8">
         <v>4</v>
@@ -979,7 +979,7 @@
         <v>1.09861228866811</v>
       </c>
       <c r="R8">
-        <v>4.1118205684717399E-2</v>
+        <v>4.1340514322718701E-2</v>
       </c>
     </row>
     <row r="9" spans="1:18">
@@ -1002,7 +1002,7 @@
         <v>29.1</v>
       </c>
       <c r="O9">
-        <v>3.12970531297053E-2</v>
+        <v>3.1466262975778599E-2</v>
       </c>
       <c r="P9">
         <v>4</v>
@@ -1011,7 +1011,7 @@
         <v>1.09861228866811</v>
       </c>
       <c r="R9">
-        <v>3.4383327167393E-2</v>
+        <v>3.45692231836527E-2</v>
       </c>
     </row>
     <row r="10" spans="1:18">
@@ -1028,7 +1028,7 @@
         <v>17</v>
       </c>
       <c r="O10">
-        <v>1.8283501828350202E-2</v>
+        <v>1.8382352941176499E-2</v>
       </c>
       <c r="P10">
         <v>2</v>
@@ -1037,7 +1037,7 @@
         <v>1.7917594692280501</v>
       </c>
       <c r="R10">
-        <v>3.2759637531594901E-2</v>
+        <v>3.2936754949045098E-2</v>
       </c>
     </row>
     <row r="11" spans="1:18">
@@ -1060,7 +1060,7 @@
         <v>27.1</v>
       </c>
       <c r="O11">
-        <v>2.91460529146053E-2</v>
+        <v>2.9303633217993098E-2</v>
       </c>
       <c r="P11">
         <v>4</v>
@@ -1069,7 +1069,7 @@
         <v>1.09861228866811</v>
       </c>
       <c r="R11">
-        <v>3.2020211898156403E-2</v>
+        <v>3.2193331555910198E-2</v>
       </c>
     </row>
     <row r="12" spans="1:18">
@@ -1092,7 +1092,7 @@
         <v>26</v>
       </c>
       <c r="O12">
-        <v>2.7963002796300301E-2</v>
+        <v>2.8114186851211101E-2</v>
       </c>
       <c r="P12">
         <v>4</v>
@@ -1101,7 +1101,7 @@
         <v>1.09861228866811</v>
       </c>
       <c r="R12">
-        <v>3.0720498500076202E-2</v>
+        <v>3.0886591160651899E-2</v>
       </c>
     </row>
     <row r="13" spans="1:18">
@@ -1121,7 +1121,7 @@
         <v>19</v>
       </c>
       <c r="O13">
-        <v>2.0434502043450199E-2</v>
+        <v>2.0544982698961899E-2</v>
       </c>
       <c r="P13">
         <v>3</v>
@@ -1130,7 +1130,7 @@
         <v>1.3862943611198899</v>
       </c>
       <c r="R13">
-        <v>2.8328234955127901E-2</v>
+        <v>2.8481393664876599E-2</v>
       </c>
     </row>
     <row r="14" spans="1:18">
@@ -1150,7 +1150,7 @@
         <v>18</v>
       </c>
       <c r="O14">
-        <v>1.9359001935900198E-2</v>
+        <v>1.9463667820069201E-2</v>
       </c>
       <c r="P14">
         <v>3</v>
@@ -1159,7 +1159,7 @@
         <v>1.3862943611198899</v>
       </c>
       <c r="R14">
-        <v>2.6837275220647501E-2</v>
+        <v>2.69823729456726E-2</v>
       </c>
     </row>
     <row r="15" spans="1:18">
@@ -1179,7 +1179,7 @@
         <v>17</v>
       </c>
       <c r="O15">
-        <v>1.8283501828350202E-2</v>
+        <v>1.8382352941176499E-2</v>
       </c>
       <c r="P15">
         <v>3</v>
@@ -1188,7 +1188,7 @@
         <v>1.3862943611198899</v>
       </c>
       <c r="R15">
-        <v>2.5346315486167101E-2</v>
+        <v>2.5483352226468602E-2</v>
       </c>
     </row>
     <row r="16" spans="1:18">
@@ -1211,7 +1211,7 @@
         <v>21.4</v>
       </c>
       <c r="O16">
-        <v>2.3015702301570198E-2</v>
+        <v>2.3140138408304499E-2</v>
       </c>
       <c r="P16">
         <v>4</v>
@@ -1220,7 +1220,7 @@
         <v>1.09861228866811</v>
       </c>
       <c r="R16">
-        <v>2.5285333380832001E-2</v>
+        <v>2.5422040416844201E-2</v>
       </c>
     </row>
     <row r="17" spans="1:18">
@@ -1237,7 +1237,7 @@
         <v>13</v>
       </c>
       <c r="O17">
-        <v>1.39815013981501E-2</v>
+        <v>1.40570934256055E-2</v>
       </c>
       <c r="P17">
         <v>2</v>
@@ -1246,7 +1246,7 @@
         <v>1.7917594692280501</v>
       </c>
       <c r="R17">
-        <v>2.5051487524160799E-2</v>
+        <v>2.5186930255152201E-2</v>
       </c>
     </row>
     <row r="18" spans="1:18">
@@ -1269,7 +1269,7 @@
         <v>21.2</v>
       </c>
       <c r="O18">
-        <v>2.28006022800602E-2</v>
+        <v>2.2923875432526001E-2</v>
       </c>
       <c r="P18">
         <v>4</v>
@@ -1278,7 +1278,7 @@
         <v>1.09861228866811</v>
       </c>
       <c r="R18">
-        <v>2.5049021853908299E-2</v>
+        <v>2.5184451254070001E-2</v>
       </c>
     </row>
     <row r="19" spans="1:18">
@@ -1301,7 +1301,7 @@
         <v>12</v>
       </c>
       <c r="O19">
-        <v>1.29060012906001E-2</v>
+        <v>1.29757785467128E-2</v>
       </c>
       <c r="P19">
         <v>2</v>
@@ -1310,7 +1310,7 @@
         <v>1.7917594692280501</v>
       </c>
       <c r="R19">
-        <v>2.31244500223023E-2</v>
+        <v>2.3249474081678899E-2</v>
       </c>
     </row>
     <row r="20" spans="1:18">
@@ -1333,7 +1333,7 @@
         <v>11.5</v>
       </c>
       <c r="O20">
-        <v>1.23682512368251E-2</v>
+        <v>1.2435121107266399E-2</v>
       </c>
       <c r="P20">
         <v>2</v>
@@ -1342,7 +1342,7 @@
         <v>1.7917594692280501</v>
       </c>
       <c r="R20">
-        <v>2.2160931271372999E-2</v>
+        <v>2.22807459949423E-2</v>
       </c>
     </row>
     <row r="21" spans="1:18">
@@ -1365,7 +1365,7 @@
         <v>14.5</v>
       </c>
       <c r="O21">
-        <v>1.5594751559475199E-2</v>
+        <v>1.5679065743944599E-2</v>
       </c>
       <c r="P21">
         <v>3</v>
@@ -1374,7 +1374,7 @@
         <v>1.3862943611198899</v>
       </c>
       <c r="R21">
-        <v>2.1618916149966E-2</v>
+        <v>2.1735800428458501E-2</v>
       </c>
     </row>
     <row r="22" spans="1:18">
@@ -1397,7 +1397,7 @@
         <v>8</v>
       </c>
       <c r="O22">
-        <v>8.6040008604000903E-3</v>
+        <v>8.6505190311418692E-3</v>
       </c>
       <c r="P22">
         <v>1</v>
@@ -1406,7 +1406,7 @@
         <v>2.4849066497879999</v>
       </c>
       <c r="R22">
-        <v>2.1380138952789899E-2</v>
+        <v>2.1495732264602101E-2</v>
       </c>
     </row>
     <row r="23" spans="1:18">
@@ -1429,7 +1429,7 @@
         <v>10.9</v>
       </c>
       <c r="O23">
-        <v>1.1722951172295101E-2</v>
+        <v>1.1786332179930799E-2</v>
       </c>
       <c r="P23">
         <v>2</v>
@@ -1438,7 +1438,7 @@
         <v>1.7917594692280501</v>
       </c>
       <c r="R23">
-        <v>2.10047087702579E-2</v>
+        <v>2.11182722908583E-2</v>
       </c>
     </row>
     <row r="24" spans="1:18">
@@ -1461,7 +1461,7 @@
         <v>7.5</v>
       </c>
       <c r="O24">
-        <v>8.0662508066250797E-3</v>
+        <v>8.1098615916954993E-3</v>
       </c>
       <c r="P24">
         <v>1</v>
@@ -1470,7 +1470,7 @@
         <v>2.4849066497879999</v>
       </c>
       <c r="R24">
-        <v>2.0043880268240499E-2</v>
+        <v>2.01522489980645E-2</v>
       </c>
     </row>
     <row r="25" spans="1:18">
@@ -1493,7 +1493,7 @@
         <v>15.6</v>
       </c>
       <c r="O25">
-        <v>1.6777801677780198E-2</v>
+        <v>1.68685121107266E-2</v>
       </c>
       <c r="P25">
         <v>4</v>
@@ -1502,7 +1502,7 @@
         <v>1.09861228866811</v>
       </c>
       <c r="R25">
-        <v>1.84322991000457E-2</v>
+        <v>1.8531954696391101E-2</v>
       </c>
     </row>
     <row r="26" spans="1:18">
@@ -1525,7 +1525,7 @@
         <v>9.5</v>
       </c>
       <c r="O26">
-        <v>1.0217251021725099E-2</v>
+        <v>1.0272491349481E-2</v>
       </c>
       <c r="P26">
         <v>2</v>
@@ -1534,7 +1534,7 @@
         <v>1.7917594692280501</v>
       </c>
       <c r="R26">
-        <v>1.8306856267656001E-2</v>
+        <v>1.8405833647995799E-2</v>
       </c>
     </row>
     <row r="27" spans="1:18">
@@ -1557,7 +1557,7 @@
         <v>15</v>
       </c>
       <c r="O27">
-        <v>1.6132501613250201E-2</v>
+        <v>1.6219723183390999E-2</v>
       </c>
       <c r="P27">
         <v>4</v>
@@ -1566,7 +1566,7 @@
         <v>1.09861228866811</v>
       </c>
       <c r="R27">
-        <v>1.7723364519274701E-2</v>
+        <v>1.78191872080684E-2</v>
       </c>
     </row>
     <row r="28" spans="1:18">
@@ -1586,7 +1586,7 @@
         <v>11</v>
       </c>
       <c r="O28">
-        <v>1.18305011830501E-2</v>
+        <v>1.1894463667820101E-2</v>
       </c>
       <c r="P28">
         <v>3</v>
@@ -1595,7 +1595,7 @@
         <v>1.3862943611198899</v>
       </c>
       <c r="R28">
-        <v>1.6400557079284599E-2</v>
+        <v>1.6489227911244402E-2</v>
       </c>
     </row>
     <row r="29" spans="1:18">
@@ -1609,7 +1609,7 @@
         <v>6</v>
       </c>
       <c r="O29">
-        <v>6.4530006453000603E-3</v>
+        <v>6.4878892733564002E-3</v>
       </c>
       <c r="P29">
         <v>1</v>
@@ -1618,7 +1618,7 @@
         <v>2.4849066497879999</v>
       </c>
       <c r="R29">
-        <v>1.6035104214592401E-2</v>
+        <v>1.6121799198451602E-2</v>
       </c>
     </row>
     <row r="30" spans="1:18">
@@ -1641,7 +1641,7 @@
         <v>8</v>
       </c>
       <c r="O30">
-        <v>8.6040008604000903E-3</v>
+        <v>8.6505190311418692E-3</v>
       </c>
       <c r="P30">
         <v>2</v>
@@ -1650,7 +1650,7 @@
         <v>1.7917594692280501</v>
       </c>
       <c r="R30">
-        <v>1.54163000148682E-2</v>
+        <v>1.54996493877859E-2</v>
       </c>
     </row>
     <row r="31" spans="1:18">
@@ -1673,7 +1673,7 @@
         <v>13</v>
       </c>
       <c r="O31">
-        <v>1.39815013981501E-2</v>
+        <v>1.40570934256055E-2</v>
       </c>
       <c r="P31">
         <v>4</v>
@@ -1682,7 +1682,7 @@
         <v>1.09861228866811</v>
       </c>
       <c r="R31">
-        <v>1.5360249250038101E-2</v>
+        <v>1.5443295580325899E-2</v>
       </c>
     </row>
     <row r="32" spans="1:18">
@@ -1708,7 +1708,7 @@
         <v>16</v>
       </c>
       <c r="O32">
-        <v>1.7208001720800201E-2</v>
+        <v>1.73010380622837E-2</v>
       </c>
       <c r="P32">
         <v>5</v>
@@ -1717,7 +1717,7 @@
         <v>0.87546873735389996</v>
       </c>
       <c r="R32">
-        <v>1.5065067538892699E-2</v>
+        <v>1.51465179472993E-2</v>
       </c>
     </row>
     <row r="33" spans="1:18">
@@ -1740,7 +1740,7 @@
         <v>10</v>
       </c>
       <c r="O33">
-        <v>1.0755001075500099E-2</v>
+        <v>1.08131487889273E-2</v>
       </c>
       <c r="P33">
         <v>3</v>
@@ -1749,7 +1749,7 @@
         <v>1.3862943611198899</v>
       </c>
       <c r="R33">
-        <v>1.4909597344804199E-2</v>
+        <v>1.4990207192040301E-2</v>
       </c>
     </row>
     <row r="34" spans="1:18">
@@ -1766,7 +1766,7 @@
         <v>7</v>
       </c>
       <c r="O34">
-        <v>7.5285007528500796E-3</v>
+        <v>7.5692041522491399E-3</v>
       </c>
       <c r="P34">
         <v>2</v>
@@ -1775,7 +1775,7 @@
         <v>1.7917594692280501</v>
       </c>
       <c r="R34">
-        <v>1.3489262513009701E-2</v>
+        <v>1.35621932143127E-2</v>
       </c>
     </row>
     <row r="35" spans="1:18">
@@ -1789,7 +1789,7 @@
         <v>5</v>
       </c>
       <c r="O35">
-        <v>5.3775005377500497E-3</v>
+        <v>5.40657439446367E-3</v>
       </c>
       <c r="P35">
         <v>1</v>
@@ -1798,7 +1798,7 @@
         <v>2.4849066497879999</v>
       </c>
       <c r="R35">
-        <v>1.33625868454937E-2</v>
+        <v>1.34348326653763E-2</v>
       </c>
     </row>
     <row r="36" spans="1:18">
@@ -1821,7 +1821,7 @@
         <v>5</v>
       </c>
       <c r="O36">
-        <v>5.3775005377500497E-3</v>
+        <v>5.40657439446367E-3</v>
       </c>
       <c r="P36">
         <v>1</v>
@@ -1830,21 +1830,30 @@
         <v>2.4849066497879999</v>
       </c>
       <c r="R36">
-        <v>1.33625868454937E-2</v>
+        <v>1.34348326653763E-2</v>
       </c>
     </row>
     <row r="37" spans="1:18">
       <c r="A37" t="s">
         <v>41</v>
       </c>
-      <c r="D37" s="1">
+      <c r="F37" s="2">
+        <v>0</v>
+      </c>
+      <c r="G37" s="2">
+        <v>0</v>
+      </c>
+      <c r="H37" s="2">
+        <v>0</v>
+      </c>
+      <c r="I37" s="2">
         <v>5</v>
       </c>
       <c r="N37">
         <v>5</v>
       </c>
       <c r="O37">
-        <v>5.3775005377500497E-3</v>
+        <v>5.40657439446367E-3</v>
       </c>
       <c r="P37">
         <v>1</v>
@@ -1853,126 +1862,126 @@
         <v>2.4849066497879999</v>
       </c>
       <c r="R37">
-        <v>1.33625868454937E-2</v>
+        <v>1.34348326653763E-2</v>
       </c>
     </row>
     <row r="38" spans="1:18">
       <c r="A38" t="s">
         <v>42</v>
       </c>
-      <c r="F38" s="2">
-        <v>0</v>
-      </c>
-      <c r="G38" s="2">
-        <v>0</v>
-      </c>
-      <c r="H38" s="2">
-        <v>0</v>
-      </c>
-      <c r="I38" s="2">
-        <v>5</v>
+      <c r="J38" s="3">
+        <v>0</v>
+      </c>
+      <c r="K38" s="3">
+        <v>0</v>
+      </c>
+      <c r="L38" s="3">
+        <v>5.5</v>
+      </c>
+      <c r="M38" s="3">
+        <v>1</v>
       </c>
       <c r="N38">
-        <v>5</v>
+        <v>6.5</v>
       </c>
       <c r="O38">
-        <v>5.3775005377500497E-3</v>
+        <v>7.02854671280277E-3</v>
       </c>
       <c r="P38">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q38">
-        <v>2.4849066497879999</v>
+        <v>1.7917594692280501</v>
       </c>
       <c r="R38">
-        <v>1.33625868454937E-2</v>
+        <v>1.2593465127576101E-2</v>
       </c>
     </row>
     <row r="39" spans="1:18">
       <c r="A39" t="s">
         <v>43</v>
       </c>
-      <c r="J39" s="3">
-        <v>0</v>
-      </c>
-      <c r="K39" s="3">
-        <v>0</v>
-      </c>
-      <c r="L39" s="3">
-        <v>5.5</v>
-      </c>
-      <c r="M39" s="3">
-        <v>1</v>
+      <c r="F39" s="2">
+        <v>4</v>
+      </c>
+      <c r="G39" s="2">
+        <v>3</v>
+      </c>
+      <c r="H39" s="2">
+        <v>1</v>
+      </c>
+      <c r="I39" s="2">
+        <v>0</v>
       </c>
       <c r="N39">
-        <v>6.5</v>
+        <v>8</v>
       </c>
       <c r="O39">
-        <v>6.99075069907507E-3</v>
+        <v>8.6505190311418692E-3</v>
       </c>
       <c r="P39">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q39">
-        <v>1.7917594692280501</v>
+        <v>1.3862943611198899</v>
       </c>
       <c r="R39">
-        <v>1.2525743762080399E-2</v>
+        <v>1.19921657536323E-2</v>
       </c>
     </row>
     <row r="40" spans="1:18">
       <c r="A40" t="s">
         <v>44</v>
       </c>
-      <c r="F40" s="2">
-        <v>4</v>
-      </c>
-      <c r="G40" s="2">
-        <v>3</v>
-      </c>
-      <c r="H40" s="2">
-        <v>1</v>
-      </c>
-      <c r="I40" s="2">
-        <v>0</v>
+      <c r="B40" s="1">
+        <v>2</v>
+      </c>
+      <c r="C40" s="1">
+        <v>1</v>
+      </c>
+      <c r="D40" s="1">
+        <v>5</v>
+      </c>
+      <c r="E40" s="1">
+        <v>2</v>
       </c>
       <c r="N40">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="O40">
-        <v>8.6040008604000903E-3</v>
+        <v>1.08131487889273E-2</v>
       </c>
       <c r="P40">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q40">
-        <v>1.3862943611198899</v>
+        <v>1.09861228866811</v>
       </c>
       <c r="R40">
-        <v>1.19276778758433E-2</v>
+        <v>1.1879458138712299E-2</v>
       </c>
     </row>
     <row r="41" spans="1:18">
       <c r="A41" t="s">
         <v>45</v>
       </c>
-      <c r="B41" s="1">
-        <v>2</v>
-      </c>
-      <c r="C41" s="1">
-        <v>1</v>
-      </c>
-      <c r="D41" s="1">
-        <v>5</v>
-      </c>
-      <c r="E41" s="1">
-        <v>2</v>
+      <c r="F41" s="2">
+        <v>1</v>
+      </c>
+      <c r="G41" s="2">
+        <v>1</v>
+      </c>
+      <c r="J41" s="3">
+        <v>7</v>
+      </c>
+      <c r="K41" s="3">
+        <v>1</v>
       </c>
       <c r="N41">
         <v>10</v>
       </c>
       <c r="O41">
-        <v>1.0755001075500099E-2</v>
+        <v>1.08131487889273E-2</v>
       </c>
       <c r="P41">
         <v>4</v>
@@ -1981,62 +1990,62 @@
         <v>1.09861228866811</v>
       </c>
       <c r="R41">
-        <v>1.18155763461832E-2</v>
+        <v>1.1879458138712299E-2</v>
       </c>
     </row>
     <row r="42" spans="1:18">
       <c r="A42" t="s">
         <v>46</v>
       </c>
-      <c r="F42" s="2">
-        <v>1</v>
-      </c>
-      <c r="G42" s="2">
-        <v>1</v>
-      </c>
-      <c r="J42" s="3">
-        <v>7</v>
-      </c>
-      <c r="K42" s="3">
-        <v>1</v>
+      <c r="B42" s="1">
+        <v>4</v>
+      </c>
+      <c r="C42" s="1">
+        <v>2</v>
+      </c>
+      <c r="D42" s="1">
+        <v>0</v>
+      </c>
+      <c r="E42" s="1">
+        <v>0</v>
       </c>
       <c r="N42">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="O42">
-        <v>1.0755001075500099E-2</v>
+        <v>6.4878892733564002E-3</v>
       </c>
       <c r="P42">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="Q42">
-        <v>1.09861228866811</v>
+        <v>1.7917594692280501</v>
       </c>
       <c r="R42">
-        <v>1.18155763461832E-2</v>
+        <v>1.16247370408395E-2</v>
       </c>
     </row>
     <row r="43" spans="1:18">
       <c r="A43" t="s">
         <v>47</v>
       </c>
-      <c r="B43" s="1">
-        <v>4</v>
-      </c>
-      <c r="C43" s="1">
-        <v>2</v>
-      </c>
-      <c r="D43" s="1">
-        <v>0</v>
-      </c>
-      <c r="E43" s="1">
+      <c r="F43" s="2">
+        <v>4</v>
+      </c>
+      <c r="G43" s="2">
+        <v>2</v>
+      </c>
+      <c r="H43" s="2">
+        <v>0</v>
+      </c>
+      <c r="I43" s="2">
         <v>0</v>
       </c>
       <c r="N43">
         <v>6</v>
       </c>
       <c r="O43">
-        <v>6.4530006453000603E-3</v>
+        <v>6.4878892733564002E-3</v>
       </c>
       <c r="P43">
         <v>2</v>
@@ -2045,30 +2054,24 @@
         <v>1.7917594692280501</v>
       </c>
       <c r="R43">
-        <v>1.15622250111511E-2</v>
+        <v>1.16247370408395E-2</v>
       </c>
     </row>
     <row r="44" spans="1:18">
       <c r="A44" t="s">
         <v>48</v>
       </c>
-      <c r="F44" s="2">
-        <v>4</v>
-      </c>
-      <c r="G44" s="2">
-        <v>2</v>
-      </c>
-      <c r="H44" s="2">
-        <v>0</v>
-      </c>
-      <c r="I44" s="2">
-        <v>0</v>
+      <c r="C44" s="1">
+        <v>1</v>
+      </c>
+      <c r="E44" s="1">
+        <v>5</v>
       </c>
       <c r="N44">
         <v>6</v>
       </c>
       <c r="O44">
-        <v>6.4530006453000603E-3</v>
+        <v>6.4878892733564002E-3</v>
       </c>
       <c r="P44">
         <v>2</v>
@@ -2077,56 +2080,62 @@
         <v>1.7917594692280501</v>
       </c>
       <c r="R44">
-        <v>1.15622250111511E-2</v>
+        <v>1.16247370408395E-2</v>
       </c>
     </row>
     <row r="45" spans="1:18">
       <c r="A45" t="s">
         <v>49</v>
       </c>
-      <c r="C45" s="1">
-        <v>1</v>
-      </c>
-      <c r="E45" s="1">
-        <v>5</v>
+      <c r="J45" s="3">
+        <v>0</v>
+      </c>
+      <c r="K45" s="3">
+        <v>4</v>
+      </c>
+      <c r="L45" s="3">
+        <v>0</v>
+      </c>
+      <c r="M45" s="3">
+        <v>0</v>
       </c>
       <c r="N45">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="O45">
-        <v>6.4530006453000603E-3</v>
+        <v>4.3252595155709303E-3</v>
       </c>
       <c r="P45">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q45">
-        <v>1.7917594692280501</v>
+        <v>2.4849066497879999</v>
       </c>
       <c r="R45">
-        <v>1.15622250111511E-2</v>
+        <v>1.0747866132301E-2</v>
       </c>
     </row>
     <row r="46" spans="1:18">
       <c r="A46" t="s">
         <v>50</v>
       </c>
-      <c r="J46" s="3">
-        <v>0</v>
-      </c>
-      <c r="K46" s="3">
-        <v>4</v>
-      </c>
-      <c r="L46" s="3">
-        <v>0</v>
-      </c>
-      <c r="M46" s="3">
+      <c r="F46" s="2">
+        <v>4</v>
+      </c>
+      <c r="G46" s="2">
+        <v>0</v>
+      </c>
+      <c r="H46" s="2">
+        <v>0</v>
+      </c>
+      <c r="I46" s="2">
         <v>0</v>
       </c>
       <c r="N46">
         <v>4</v>
       </c>
       <c r="O46">
-        <v>4.3020004302000399E-3</v>
+        <v>4.3252595155709303E-3</v>
       </c>
       <c r="P46">
         <v>1</v>
@@ -2135,30 +2144,21 @@
         <v>2.4849066497879999</v>
       </c>
       <c r="R46">
-        <v>1.0690069476394899E-2</v>
+        <v>1.0747866132301E-2</v>
       </c>
     </row>
     <row r="47" spans="1:18">
       <c r="A47" t="s">
         <v>51</v>
       </c>
-      <c r="F47" s="2">
-        <v>4</v>
-      </c>
       <c r="G47" s="2">
-        <v>0</v>
-      </c>
-      <c r="H47" s="2">
-        <v>0</v>
-      </c>
-      <c r="I47" s="2">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N47">
         <v>4</v>
       </c>
       <c r="O47">
-        <v>4.3020004302000399E-3</v>
+        <v>4.3252595155709303E-3</v>
       </c>
       <c r="P47">
         <v>1</v>
@@ -2167,21 +2167,30 @@
         <v>2.4849066497879999</v>
       </c>
       <c r="R47">
-        <v>1.0690069476394899E-2</v>
+        <v>1.0747866132301E-2</v>
       </c>
     </row>
     <row r="48" spans="1:18">
       <c r="A48" t="s">
         <v>52</v>
       </c>
-      <c r="G48" s="2">
+      <c r="J48" s="3">
+        <v>0</v>
+      </c>
+      <c r="K48" s="3">
+        <v>0</v>
+      </c>
+      <c r="L48" s="3">
+        <v>0</v>
+      </c>
+      <c r="M48" s="3">
         <v>4</v>
       </c>
       <c r="N48">
         <v>4</v>
       </c>
       <c r="O48">
-        <v>4.3020004302000399E-3</v>
+        <v>4.3252595155709303E-3</v>
       </c>
       <c r="P48">
         <v>1</v>
@@ -2190,94 +2199,88 @@
         <v>2.4849066497879999</v>
       </c>
       <c r="R48">
-        <v>1.0690069476394899E-2</v>
+        <v>1.0747866132301E-2</v>
       </c>
     </row>
     <row r="49" spans="1:18">
       <c r="A49" t="s">
         <v>53</v>
       </c>
-      <c r="J49" s="3">
-        <v>0</v>
-      </c>
-      <c r="K49" s="3">
-        <v>0</v>
-      </c>
-      <c r="L49" s="3">
-        <v>0</v>
-      </c>
-      <c r="M49" s="3">
-        <v>4</v>
+      <c r="B49" s="1">
+        <v>0</v>
+      </c>
+      <c r="C49" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="D49" s="1">
+        <v>3</v>
+      </c>
+      <c r="E49" s="1">
+        <v>3.5</v>
       </c>
       <c r="N49">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="O49">
-        <v>4.3020004302000399E-3</v>
+        <v>7.5692041522491399E-3</v>
       </c>
       <c r="P49">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q49">
-        <v>2.4849066497879999</v>
+        <v>1.3862943611198899</v>
       </c>
       <c r="R49">
-        <v>1.0690069476394899E-2</v>
+        <v>1.04931450344282E-2</v>
       </c>
     </row>
     <row r="50" spans="1:18">
       <c r="A50" t="s">
         <v>54</v>
       </c>
-      <c r="B50" s="1">
-        <v>0</v>
-      </c>
-      <c r="C50" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="D50" s="1">
-        <v>3</v>
-      </c>
-      <c r="E50" s="1">
-        <v>3.5</v>
+      <c r="J50" s="3">
+        <v>1</v>
+      </c>
+      <c r="K50" s="3">
+        <v>4</v>
+      </c>
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3">
+        <v>0</v>
       </c>
       <c r="N50">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="O50">
-        <v>7.5285007528500796E-3</v>
+        <v>5.40657439446367E-3</v>
       </c>
       <c r="P50">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q50">
-        <v>1.3862943611198899</v>
+        <v>1.7917594692280501</v>
       </c>
       <c r="R50">
-        <v>1.04367181413629E-2</v>
+        <v>9.6872808673662096E-3</v>
       </c>
     </row>
     <row r="51" spans="1:18">
       <c r="A51" t="s">
         <v>55</v>
       </c>
-      <c r="J51" s="3">
-        <v>1</v>
-      </c>
-      <c r="K51" s="3">
-        <v>4</v>
-      </c>
       <c r="L51" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M51" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N51">
         <v>5</v>
       </c>
       <c r="O51">
-        <v>5.3775005377500497E-3</v>
+        <v>5.40657439446367E-3</v>
       </c>
       <c r="P51">
         <v>2</v>
@@ -2286,13 +2289,19 @@
         <v>1.7917594692280501</v>
       </c>
       <c r="R51">
-        <v>9.6351875092926201E-3</v>
+        <v>9.6872808673662096E-3</v>
       </c>
     </row>
     <row r="52" spans="1:18">
       <c r="A52" t="s">
         <v>56</v>
       </c>
+      <c r="J52" s="3">
+        <v>0</v>
+      </c>
+      <c r="K52" s="3">
+        <v>0</v>
+      </c>
       <c r="L52" s="3">
         <v>4</v>
       </c>
@@ -2303,7 +2312,7 @@
         <v>5</v>
       </c>
       <c r="O52">
-        <v>5.3775005377500497E-3</v>
+        <v>5.40657439446367E-3</v>
       </c>
       <c r="P52">
         <v>2</v>
@@ -2312,117 +2321,108 @@
         <v>1.7917594692280501</v>
       </c>
       <c r="R52">
-        <v>9.6351875092926201E-3</v>
+        <v>9.6872808673662096E-3</v>
       </c>
     </row>
     <row r="53" spans="1:18">
       <c r="A53" t="s">
         <v>57</v>
       </c>
-      <c r="J53" s="3">
-        <v>0</v>
-      </c>
-      <c r="K53" s="3">
-        <v>0</v>
-      </c>
-      <c r="L53" s="3">
-        <v>4</v>
-      </c>
-      <c r="M53" s="3">
-        <v>1</v>
+      <c r="F53" s="2">
+        <v>1</v>
+      </c>
+      <c r="G53" s="2">
+        <v>2</v>
+      </c>
+      <c r="H53" s="2">
+        <v>3</v>
+      </c>
+      <c r="I53" s="2">
+        <v>0</v>
       </c>
       <c r="N53">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O53">
-        <v>5.3775005377500497E-3</v>
+        <v>6.4878892733564002E-3</v>
       </c>
       <c r="P53">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q53">
-        <v>1.7917594692280501</v>
+        <v>1.3862943611198899</v>
       </c>
       <c r="R53">
-        <v>9.6351875092926201E-3</v>
+        <v>8.9941243152242001E-3</v>
       </c>
     </row>
     <row r="54" spans="1:18">
       <c r="A54" t="s">
         <v>58</v>
       </c>
-      <c r="F54" s="2">
-        <v>1</v>
-      </c>
-      <c r="G54" s="2">
-        <v>2</v>
-      </c>
-      <c r="H54" s="2">
-        <v>3</v>
-      </c>
-      <c r="I54" s="2">
-        <v>0</v>
+      <c r="B54" s="1">
+        <v>3</v>
+      </c>
+      <c r="C54" s="1">
+        <v>1</v>
+      </c>
+      <c r="D54" s="1">
+        <v>2</v>
+      </c>
+      <c r="E54" s="1">
+        <v>1</v>
       </c>
       <c r="N54">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="O54">
-        <v>6.4530006453000603E-3</v>
+        <v>7.5692041522491399E-3</v>
       </c>
       <c r="P54">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q54">
-        <v>1.3862943611198899</v>
+        <v>1.09861228866811</v>
       </c>
       <c r="R54">
-        <v>8.9457584068824893E-3</v>
+        <v>8.3156206970985795E-3</v>
       </c>
     </row>
     <row r="55" spans="1:18">
       <c r="A55" t="s">
         <v>59</v>
       </c>
-      <c r="B55" s="1">
-        <v>3</v>
-      </c>
-      <c r="C55" s="1">
-        <v>1</v>
-      </c>
-      <c r="D55" s="1">
-        <v>2</v>
-      </c>
       <c r="E55" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N55">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="O55">
-        <v>7.5285007528500796E-3</v>
+        <v>3.2439446366782001E-3</v>
       </c>
       <c r="P55">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="Q55">
-        <v>1.09861228866811</v>
+        <v>2.4849066497879999</v>
       </c>
       <c r="R55">
-        <v>8.2709034423282101E-3</v>
+        <v>8.0608995992257799E-3</v>
       </c>
     </row>
     <row r="56" spans="1:18">
       <c r="A56" t="s">
         <v>60</v>
       </c>
-      <c r="E56" s="1">
+      <c r="D56" s="1">
         <v>3</v>
       </c>
       <c r="N56">
         <v>3</v>
       </c>
       <c r="O56">
-        <v>3.2265003226500302E-3</v>
+        <v>3.2439446366782001E-3</v>
       </c>
       <c r="P56">
         <v>1</v>
@@ -2431,21 +2431,21 @@
         <v>2.4849066497879999</v>
       </c>
       <c r="R56">
-        <v>8.01755210729619E-3</v>
+        <v>8.0608995992257799E-3</v>
       </c>
     </row>
     <row r="57" spans="1:18">
       <c r="A57" t="s">
         <v>61</v>
       </c>
-      <c r="D57" s="1">
+      <c r="B57" s="1">
         <v>3</v>
       </c>
       <c r="N57">
         <v>3</v>
       </c>
       <c r="O57">
-        <v>3.2265003226500302E-3</v>
+        <v>3.2439446366782001E-3</v>
       </c>
       <c r="P57">
         <v>1</v>
@@ -2454,21 +2454,30 @@
         <v>2.4849066497879999</v>
       </c>
       <c r="R57">
-        <v>8.01755210729619E-3</v>
+        <v>8.0608995992257799E-3</v>
       </c>
     </row>
     <row r="58" spans="1:18">
       <c r="A58" t="s">
         <v>62</v>
       </c>
-      <c r="B58" s="1">
-        <v>3</v>
+      <c r="J58" s="3">
+        <v>0</v>
+      </c>
+      <c r="K58" s="3">
+        <v>3</v>
+      </c>
+      <c r="L58" s="3">
+        <v>0</v>
+      </c>
+      <c r="M58" s="3">
+        <v>0</v>
       </c>
       <c r="N58">
         <v>3</v>
       </c>
       <c r="O58">
-        <v>3.2265003226500302E-3</v>
+        <v>3.2439446366782001E-3</v>
       </c>
       <c r="P58">
         <v>1</v>
@@ -2477,62 +2486,56 @@
         <v>2.4849066497879999</v>
       </c>
       <c r="R58">
-        <v>8.01755210729619E-3</v>
+        <v>8.0608995992257799E-3</v>
       </c>
     </row>
     <row r="59" spans="1:18">
       <c r="A59" t="s">
         <v>63</v>
       </c>
-      <c r="J59" s="3">
-        <v>0</v>
-      </c>
-      <c r="K59" s="3">
-        <v>3</v>
-      </c>
-      <c r="L59" s="3">
-        <v>0</v>
-      </c>
-      <c r="M59" s="3">
-        <v>0</v>
+      <c r="F59" s="2">
+        <v>0</v>
+      </c>
+      <c r="G59" s="2">
+        <v>1</v>
+      </c>
+      <c r="H59" s="2">
+        <v>0</v>
+      </c>
+      <c r="I59" s="2">
+        <v>3</v>
       </c>
       <c r="N59">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O59">
-        <v>3.2265003226500302E-3</v>
+        <v>4.3252595155709303E-3</v>
       </c>
       <c r="P59">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q59">
-        <v>2.4849066497879999</v>
+        <v>1.7917594692280501</v>
       </c>
       <c r="R59">
-        <v>8.01755210729619E-3</v>
+        <v>7.7498246938929698E-3</v>
       </c>
     </row>
     <row r="60" spans="1:18">
       <c r="A60" t="s">
         <v>64</v>
       </c>
-      <c r="F60" s="2">
-        <v>0</v>
-      </c>
-      <c r="G60" s="2">
-        <v>1</v>
-      </c>
-      <c r="H60" s="2">
-        <v>0</v>
-      </c>
-      <c r="I60" s="2">
+      <c r="C60" s="1">
+        <v>1</v>
+      </c>
+      <c r="E60" s="1">
         <v>3</v>
       </c>
       <c r="N60">
         <v>4</v>
       </c>
       <c r="O60">
-        <v>4.3020004302000399E-3</v>
+        <v>4.3252595155709303E-3</v>
       </c>
       <c r="P60">
         <v>2</v>
@@ -2541,53 +2544,59 @@
         <v>1.7917594692280501</v>
       </c>
       <c r="R60">
-        <v>7.7081500074340902E-3</v>
+        <v>7.7498246938929698E-3</v>
       </c>
     </row>
     <row r="61" spans="1:18">
       <c r="A61" t="s">
         <v>65</v>
       </c>
-      <c r="C61" s="1">
-        <v>1</v>
-      </c>
-      <c r="E61" s="1">
-        <v>3</v>
+      <c r="G61" s="2">
+        <v>2</v>
+      </c>
+      <c r="H61" s="2">
+        <v>2</v>
+      </c>
+      <c r="I61" s="2">
+        <v>1</v>
       </c>
       <c r="N61">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O61">
-        <v>4.3020004302000399E-3</v>
+        <v>5.40657439446367E-3</v>
       </c>
       <c r="P61">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q61">
-        <v>1.7917594692280501</v>
+        <v>1.3862943611198899</v>
       </c>
       <c r="R61">
-        <v>7.7081500074340902E-3</v>
+        <v>7.4951035960201702E-3</v>
       </c>
     </row>
     <row r="62" spans="1:18">
       <c r="A62" t="s">
         <v>66</v>
       </c>
-      <c r="G62" s="2">
-        <v>2</v>
-      </c>
-      <c r="H62" s="2">
-        <v>2</v>
-      </c>
-      <c r="I62" s="2">
-        <v>1</v>
+      <c r="J62" s="3">
+        <v>1</v>
+      </c>
+      <c r="K62" s="3">
+        <v>0</v>
+      </c>
+      <c r="L62" s="3">
+        <v>3.3</v>
+      </c>
+      <c r="M62" s="3">
+        <v>0.5</v>
       </c>
       <c r="N62">
-        <v>5</v>
+        <v>4.8</v>
       </c>
       <c r="O62">
-        <v>5.3775005377500497E-3</v>
+        <v>5.19031141868512E-3</v>
       </c>
       <c r="P62">
         <v>3</v>
@@ -2596,39 +2605,39 @@
         <v>1.3862943611198899</v>
       </c>
       <c r="R62">
-        <v>7.4547986724020797E-3</v>
+        <v>7.1952994521793604E-3</v>
       </c>
     </row>
     <row r="63" spans="1:18">
       <c r="A63" t="s">
         <v>67</v>
       </c>
+      <c r="F63" s="2">
+        <v>1</v>
+      </c>
+      <c r="G63" s="2">
+        <v>3</v>
+      </c>
       <c r="J63" s="3">
         <v>1</v>
       </c>
-      <c r="K63" s="3">
-        <v>0</v>
-      </c>
-      <c r="L63" s="3">
-        <v>3.3</v>
-      </c>
       <c r="M63" s="3">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="N63">
-        <v>4.8</v>
+        <v>6</v>
       </c>
       <c r="O63">
-        <v>5.16240051624005E-3</v>
+        <v>6.4878892733564002E-3</v>
       </c>
       <c r="P63">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q63">
-        <v>1.3862943611198899</v>
+        <v>1.09861228866811</v>
       </c>
       <c r="R63">
-        <v>7.1566067255060001E-3</v>
+        <v>7.1276748832273598E-3</v>
       </c>
     </row>
     <row r="64" spans="1:18">
@@ -2636,63 +2645,63 @@
         <v>68</v>
       </c>
       <c r="F64" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G64" s="2">
-        <v>3</v>
-      </c>
-      <c r="J64" s="3">
-        <v>1</v>
-      </c>
-      <c r="M64" s="3">
-        <v>1</v>
+        <v>0.5</v>
+      </c>
+      <c r="H64" s="2">
+        <v>0</v>
+      </c>
+      <c r="I64" s="2">
+        <v>0</v>
       </c>
       <c r="N64">
-        <v>6</v>
+        <v>3.5</v>
       </c>
       <c r="O64">
-        <v>6.4530006453000603E-3</v>
+        <v>3.7846020761245699E-3</v>
       </c>
       <c r="P64">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="Q64">
-        <v>1.09861228866811</v>
+        <v>1.7917594692280501</v>
       </c>
       <c r="R64">
-        <v>7.0893458077098898E-3</v>
+        <v>6.7810966071563498E-3</v>
       </c>
     </row>
     <row r="65" spans="1:18">
       <c r="A65" t="s">
         <v>69</v>
       </c>
-      <c r="F65" s="2">
-        <v>3</v>
-      </c>
-      <c r="G65" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="H65" s="2">
-        <v>0</v>
-      </c>
-      <c r="I65" s="2">
-        <v>0</v>
+      <c r="B65" s="1">
+        <v>0</v>
+      </c>
+      <c r="C65" s="1">
+        <v>1</v>
+      </c>
+      <c r="D65" s="1">
+        <v>2</v>
+      </c>
+      <c r="E65" s="1">
+        <v>1</v>
       </c>
       <c r="N65">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="O65">
-        <v>3.7642503764250398E-3</v>
+        <v>4.3252595155709303E-3</v>
       </c>
       <c r="P65">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q65">
-        <v>1.7917594692280501</v>
+        <v>1.3862943611198899</v>
       </c>
       <c r="R65">
-        <v>6.7446312565048296E-3</v>
+        <v>5.9960828768161403E-3</v>
       </c>
     </row>
     <row r="66" spans="1:18">
@@ -2700,31 +2709,31 @@
         <v>70</v>
       </c>
       <c r="B66" s="1">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="C66" s="1">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="D66" s="1">
-        <v>2</v>
+        <v>3.5</v>
       </c>
       <c r="E66" s="1">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="N66">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O66">
-        <v>4.3020004302000399E-3</v>
+        <v>5.40657439446367E-3</v>
       </c>
       <c r="P66">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q66">
-        <v>1.3862943611198899</v>
+        <v>1.09861228866811</v>
       </c>
       <c r="R66">
-        <v>5.9638389379216604E-3</v>
+        <v>5.9397290693561297E-3</v>
       </c>
     </row>
     <row r="67" spans="1:18">
@@ -2732,54 +2741,54 @@
         <v>71</v>
       </c>
       <c r="B67" s="1">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="C67" s="1">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="D67" s="1">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="E67" s="1">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="N67">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="O67">
-        <v>5.3775005377500497E-3</v>
+        <v>3.2439446366782001E-3</v>
       </c>
       <c r="P67">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="Q67">
-        <v>1.09861228866811</v>
+        <v>1.7917594692280501</v>
       </c>
       <c r="R67">
-        <v>5.9077881730915799E-3</v>
+        <v>5.8123685204197299E-3</v>
       </c>
     </row>
     <row r="68" spans="1:18">
       <c r="A68" t="s">
         <v>72</v>
       </c>
-      <c r="B68" s="1">
-        <v>1</v>
-      </c>
-      <c r="C68" s="1">
-        <v>2</v>
-      </c>
-      <c r="D68" s="1">
-        <v>0</v>
-      </c>
-      <c r="E68" s="1">
+      <c r="F68" s="2">
+        <v>1</v>
+      </c>
+      <c r="G68" s="2">
+        <v>0</v>
+      </c>
+      <c r="H68" s="2">
+        <v>2</v>
+      </c>
+      <c r="I68" s="2">
         <v>0</v>
       </c>
       <c r="N68">
         <v>3</v>
       </c>
       <c r="O68">
-        <v>3.2265003226500302E-3</v>
+        <v>3.2439446366782001E-3</v>
       </c>
       <c r="P68">
         <v>2</v>
@@ -2788,30 +2797,30 @@
         <v>1.7917594692280501</v>
       </c>
       <c r="R68">
-        <v>5.7811125055755698E-3</v>
+        <v>5.8123685204197299E-3</v>
       </c>
     </row>
     <row r="69" spans="1:18">
       <c r="A69" t="s">
         <v>73</v>
       </c>
-      <c r="F69" s="2">
-        <v>1</v>
-      </c>
-      <c r="G69" s="2">
-        <v>0</v>
-      </c>
-      <c r="H69" s="2">
-        <v>2</v>
-      </c>
-      <c r="I69" s="2">
-        <v>0</v>
+      <c r="B69" s="1">
+        <v>0</v>
+      </c>
+      <c r="C69" s="1">
+        <v>1</v>
+      </c>
+      <c r="D69" s="1">
+        <v>0</v>
+      </c>
+      <c r="E69" s="1">
+        <v>2</v>
       </c>
       <c r="N69">
         <v>3</v>
       </c>
       <c r="O69">
-        <v>3.2265003226500302E-3</v>
+        <v>3.2439446366782001E-3</v>
       </c>
       <c r="P69">
         <v>2</v>
@@ -2820,30 +2829,30 @@
         <v>1.7917594692280501</v>
       </c>
       <c r="R69">
-        <v>5.7811125055755698E-3</v>
+        <v>5.8123685204197299E-3</v>
       </c>
     </row>
     <row r="70" spans="1:18">
       <c r="A70" t="s">
         <v>74</v>
       </c>
-      <c r="B70" s="1">
-        <v>0</v>
-      </c>
-      <c r="C70" s="1">
-        <v>1</v>
-      </c>
-      <c r="D70" s="1">
-        <v>0</v>
-      </c>
-      <c r="E70" s="1">
-        <v>2</v>
+      <c r="J70" s="3">
+        <v>2</v>
+      </c>
+      <c r="K70" s="3">
+        <v>0</v>
+      </c>
+      <c r="L70" s="3">
+        <v>1</v>
+      </c>
+      <c r="M70" s="3">
+        <v>0</v>
       </c>
       <c r="N70">
         <v>3</v>
       </c>
       <c r="O70">
-        <v>3.2265003226500302E-3</v>
+        <v>3.2439446366782001E-3</v>
       </c>
       <c r="P70">
         <v>2</v>
@@ -2852,30 +2861,24 @@
         <v>1.7917594692280501</v>
       </c>
       <c r="R70">
-        <v>5.7811125055755698E-3</v>
+        <v>5.8123685204197299E-3</v>
       </c>
     </row>
     <row r="71" spans="1:18">
       <c r="A71" t="s">
         <v>75</v>
       </c>
-      <c r="J71" s="3">
-        <v>2</v>
-      </c>
-      <c r="K71" s="3">
-        <v>0</v>
-      </c>
       <c r="L71" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M71" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N71">
         <v>3</v>
       </c>
       <c r="O71">
-        <v>3.2265003226500302E-3</v>
+        <v>3.2439446366782001E-3</v>
       </c>
       <c r="P71">
         <v>2</v>
@@ -2884,24 +2887,30 @@
         <v>1.7917594692280501</v>
       </c>
       <c r="R71">
-        <v>5.7811125055755698E-3</v>
+        <v>5.8123685204197299E-3</v>
       </c>
     </row>
     <row r="72" spans="1:18">
       <c r="A72" t="s">
         <v>76</v>
       </c>
-      <c r="L72" s="3">
-        <v>2</v>
-      </c>
-      <c r="M72" s="3">
-        <v>1</v>
+      <c r="F72" s="2">
+        <v>2</v>
+      </c>
+      <c r="G72" s="2">
+        <v>1</v>
+      </c>
+      <c r="H72" s="2">
+        <v>0</v>
+      </c>
+      <c r="I72" s="2">
+        <v>0</v>
       </c>
       <c r="N72">
         <v>3</v>
       </c>
       <c r="O72">
-        <v>3.2265003226500302E-3</v>
+        <v>3.2439446366782001E-3</v>
       </c>
       <c r="P72">
         <v>2</v>
@@ -2910,30 +2919,30 @@
         <v>1.7917594692280501</v>
       </c>
       <c r="R72">
-        <v>5.7811125055755698E-3</v>
+        <v>5.8123685204197299E-3</v>
       </c>
     </row>
     <row r="73" spans="1:18">
       <c r="A73" t="s">
         <v>77</v>
       </c>
-      <c r="F73" s="2">
-        <v>2</v>
-      </c>
-      <c r="G73" s="2">
-        <v>1</v>
-      </c>
-      <c r="H73" s="2">
-        <v>0</v>
-      </c>
-      <c r="I73" s="2">
+      <c r="B73" s="1">
+        <v>1</v>
+      </c>
+      <c r="C73" s="1">
+        <v>0</v>
+      </c>
+      <c r="D73" s="1">
+        <v>2</v>
+      </c>
+      <c r="E73" s="1">
         <v>0</v>
       </c>
       <c r="N73">
         <v>3</v>
       </c>
       <c r="O73">
-        <v>3.2265003226500302E-3</v>
+        <v>3.2439446366782001E-3</v>
       </c>
       <c r="P73">
         <v>2</v>
@@ -2942,7 +2951,7 @@
         <v>1.7917594692280501</v>
       </c>
       <c r="R73">
-        <v>5.7811125055755698E-3</v>
+        <v>5.8123685204197299E-3</v>
       </c>
     </row>
     <row r="74" spans="1:18">
@@ -2953,10 +2962,10 @@
         <v>1</v>
       </c>
       <c r="C74" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D74" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E74" s="1">
         <v>0</v>
@@ -2965,7 +2974,7 @@
         <v>3</v>
       </c>
       <c r="O74">
-        <v>3.2265003226500302E-3</v>
+        <v>3.2439446366782001E-3</v>
       </c>
       <c r="P74">
         <v>2</v>
@@ -2974,53 +2983,44 @@
         <v>1.7917594692280501</v>
       </c>
       <c r="R74">
-        <v>5.7811125055755698E-3</v>
+        <v>5.8123685204197299E-3</v>
       </c>
     </row>
     <row r="75" spans="1:18">
       <c r="A75" t="s">
         <v>79</v>
       </c>
-      <c r="B75" s="1">
-        <v>1</v>
-      </c>
-      <c r="C75" s="1">
-        <v>2</v>
-      </c>
-      <c r="D75" s="1">
-        <v>0</v>
-      </c>
-      <c r="E75" s="1">
-        <v>0</v>
+      <c r="G75" s="2">
+        <v>2</v>
       </c>
       <c r="N75">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O75">
-        <v>3.2265003226500302E-3</v>
+        <v>2.1626297577854699E-3</v>
       </c>
       <c r="P75">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q75">
-        <v>1.7917594692280501</v>
+        <v>2.4849066497879999</v>
       </c>
       <c r="R75">
-        <v>5.7811125055755698E-3</v>
+        <v>5.37393306615052E-3</v>
       </c>
     </row>
     <row r="76" spans="1:18">
       <c r="A76" t="s">
         <v>80</v>
       </c>
-      <c r="G76" s="2">
+      <c r="M76" s="3">
         <v>2</v>
       </c>
       <c r="N76">
         <v>2</v>
       </c>
       <c r="O76">
-        <v>2.15100021510002E-3</v>
+        <v>2.1626297577854699E-3</v>
       </c>
       <c r="P76">
         <v>1</v>
@@ -3029,21 +3029,30 @@
         <v>2.4849066497879999</v>
       </c>
       <c r="R76">
-        <v>5.34503473819746E-3</v>
+        <v>5.37393306615052E-3</v>
       </c>
     </row>
     <row r="77" spans="1:18">
       <c r="A77" t="s">
         <v>81</v>
       </c>
+      <c r="J77" s="3">
+        <v>0</v>
+      </c>
+      <c r="K77" s="3">
+        <v>0</v>
+      </c>
+      <c r="L77" s="3">
+        <v>2</v>
+      </c>
       <c r="M77" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N77">
         <v>2</v>
       </c>
       <c r="O77">
-        <v>2.15100021510002E-3</v>
+        <v>2.1626297577854699E-3</v>
       </c>
       <c r="P77">
         <v>1</v>
@@ -3052,30 +3061,21 @@
         <v>2.4849066497879999</v>
       </c>
       <c r="R77">
-        <v>5.34503473819746E-3</v>
+        <v>5.37393306615052E-3</v>
       </c>
     </row>
     <row r="78" spans="1:18">
       <c r="A78" t="s">
         <v>82</v>
       </c>
-      <c r="J78" s="3">
-        <v>0</v>
-      </c>
-      <c r="K78" s="3">
-        <v>0</v>
-      </c>
-      <c r="L78" s="3">
-        <v>2</v>
-      </c>
-      <c r="M78" s="3">
-        <v>0</v>
+      <c r="E78" s="1">
+        <v>2</v>
       </c>
       <c r="N78">
         <v>2</v>
       </c>
       <c r="O78">
-        <v>2.15100021510002E-3</v>
+        <v>2.1626297577854699E-3</v>
       </c>
       <c r="P78">
         <v>1</v>
@@ -3084,21 +3084,30 @@
         <v>2.4849066497879999</v>
       </c>
       <c r="R78">
-        <v>5.34503473819746E-3</v>
+        <v>5.37393306615052E-3</v>
       </c>
     </row>
     <row r="79" spans="1:18">
       <c r="A79" t="s">
         <v>83</v>
       </c>
-      <c r="E79" s="1">
-        <v>2</v>
+      <c r="F79" s="2">
+        <v>0</v>
+      </c>
+      <c r="G79" s="2">
+        <v>2</v>
+      </c>
+      <c r="H79" s="2">
+        <v>0</v>
+      </c>
+      <c r="I79" s="2">
+        <v>0</v>
       </c>
       <c r="N79">
         <v>2</v>
       </c>
       <c r="O79">
-        <v>2.15100021510002E-3</v>
+        <v>2.1626297577854699E-3</v>
       </c>
       <c r="P79">
         <v>1</v>
@@ -3107,7 +3116,7 @@
         <v>2.4849066497879999</v>
       </c>
       <c r="R79">
-        <v>5.34503473819746E-3</v>
+        <v>5.37393306615052E-3</v>
       </c>
     </row>
     <row r="80" spans="1:18">
@@ -3130,7 +3139,7 @@
         <v>2</v>
       </c>
       <c r="O80">
-        <v>2.15100021510002E-3</v>
+        <v>2.1626297577854699E-3</v>
       </c>
       <c r="P80">
         <v>1</v>
@@ -3139,7 +3148,7 @@
         <v>2.4849066497879999</v>
       </c>
       <c r="R80">
-        <v>5.34503473819746E-3</v>
+        <v>5.37393306615052E-3</v>
       </c>
     </row>
     <row r="81" spans="1:18">
@@ -3150,10 +3159,10 @@
         <v>0</v>
       </c>
       <c r="G81" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H81" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I81" s="2">
         <v>0</v>
@@ -3162,7 +3171,7 @@
         <v>2</v>
       </c>
       <c r="O81">
-        <v>2.15100021510002E-3</v>
+        <v>2.1626297577854699E-3</v>
       </c>
       <c r="P81">
         <v>1</v>
@@ -3171,7 +3180,7 @@
         <v>2.4849066497879999</v>
       </c>
       <c r="R81">
-        <v>5.34503473819746E-3</v>
+        <v>5.37393306615052E-3</v>
       </c>
     </row>
     <row r="82" spans="1:18">
@@ -3182,77 +3191,77 @@
         <v>0</v>
       </c>
       <c r="G82" s="2">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="H82" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I82" s="2">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="N82">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O82">
-        <v>2.15100021510002E-3</v>
+        <v>3.2439446366782001E-3</v>
       </c>
       <c r="P82">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q82">
-        <v>2.4849066497879999</v>
+        <v>1.3862943611198899</v>
       </c>
       <c r="R82">
-        <v>5.34503473819746E-3</v>
+        <v>4.4970621576121E-3</v>
       </c>
     </row>
     <row r="83" spans="1:18">
       <c r="A83" t="s">
         <v>87</v>
       </c>
-      <c r="F83" s="2">
-        <v>0</v>
-      </c>
-      <c r="G83" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="H83" s="2">
-        <v>1</v>
-      </c>
-      <c r="I83" s="2">
-        <v>1.5</v>
+      <c r="L83" s="3">
+        <v>1</v>
+      </c>
+      <c r="M83" s="3">
+        <v>1</v>
       </c>
       <c r="N83">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O83">
-        <v>3.2265003226500302E-3</v>
+        <v>2.1626297577854699E-3</v>
       </c>
       <c r="P83">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q83">
-        <v>1.3862943611198899</v>
+        <v>1.7917594692280501</v>
       </c>
       <c r="R83">
-        <v>4.4728792034412499E-3</v>
+        <v>3.8749123469464901E-3</v>
       </c>
     </row>
     <row r="84" spans="1:18">
       <c r="A84" t="s">
         <v>88</v>
       </c>
-      <c r="L84" s="3">
-        <v>1</v>
-      </c>
-      <c r="M84" s="3">
+      <c r="B84" s="1">
+        <v>0</v>
+      </c>
+      <c r="C84" s="1">
+        <v>1</v>
+      </c>
+      <c r="D84" s="1">
+        <v>0</v>
+      </c>
+      <c r="E84" s="1">
         <v>1</v>
       </c>
       <c r="N84">
         <v>2</v>
       </c>
       <c r="O84">
-        <v>2.15100021510002E-3</v>
+        <v>2.1626297577854699E-3</v>
       </c>
       <c r="P84">
         <v>2</v>
@@ -3261,30 +3270,30 @@
         <v>1.7917594692280501</v>
       </c>
       <c r="R84">
-        <v>3.8540750037170499E-3</v>
+        <v>3.8749123469464901E-3</v>
       </c>
     </row>
     <row r="85" spans="1:18">
       <c r="A85" t="s">
         <v>89</v>
       </c>
-      <c r="B85" s="1">
-        <v>0</v>
-      </c>
-      <c r="C85" s="1">
-        <v>1</v>
-      </c>
-      <c r="D85" s="1">
-        <v>0</v>
-      </c>
-      <c r="E85" s="1">
-        <v>1</v>
+      <c r="F85" s="2">
+        <v>1</v>
+      </c>
+      <c r="G85" s="2">
+        <v>1</v>
+      </c>
+      <c r="H85" s="2">
+        <v>0</v>
+      </c>
+      <c r="I85" s="2">
+        <v>0</v>
       </c>
       <c r="N85">
         <v>2</v>
       </c>
       <c r="O85">
-        <v>2.15100021510002E-3</v>
+        <v>2.1626297577854699E-3</v>
       </c>
       <c r="P85">
         <v>2</v>
@@ -3293,7 +3302,7 @@
         <v>1.7917594692280501</v>
       </c>
       <c r="R85">
-        <v>3.8540750037170499E-3</v>
+        <v>3.8749123469464901E-3</v>
       </c>
     </row>
     <row r="86" spans="1:18">
@@ -3301,63 +3310,31 @@
         <v>90</v>
       </c>
       <c r="F86" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G86" s="2">
         <v>1</v>
       </c>
       <c r="H86" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I86" s="2">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="N86">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="O86">
-        <v>2.15100021510002E-3</v>
+        <v>2.7032871972318298E-3</v>
       </c>
       <c r="P86">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q86">
-        <v>1.7917594692280501</v>
+        <v>1.3862943611198899</v>
       </c>
       <c r="R86">
-        <v>3.8540750037170499E-3</v>
-      </c>
-    </row>
-    <row r="87" spans="1:18">
-      <c r="A87" t="s">
-        <v>91</v>
-      </c>
-      <c r="F87" s="2">
-        <v>0</v>
-      </c>
-      <c r="G87" s="2">
-        <v>1</v>
-      </c>
-      <c r="H87" s="2">
-        <v>1</v>
-      </c>
-      <c r="I87" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="N87">
-        <v>2.5</v>
-      </c>
-      <c r="O87">
-        <v>2.68875026887503E-3</v>
-      </c>
-      <c r="P87">
-        <v>3</v>
-      </c>
-      <c r="Q87">
-        <v>1.3862943611198899</v>
-      </c>
-      <c r="R87">
-        <v>3.7273993362010398E-3</v>
+        <v>3.7475517980100899E-3</v>
       </c>
     </row>
   </sheetData>
